--- a/media/salary_files/宋浩弘_IT0000_激勵性獎金.xlsx
+++ b/media/salary_files/宋浩弘_IT0000_激勵性獎金.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -1048,28 +1048,16 @@
       <c r="F5" s="45" t="n"/>
     </row>
     <row r="6" ht="16.2" customHeight="1" s="40">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>基本薪資</t>
-        </is>
-      </c>
-      <c r="B6" s="46" t="n">
-        <v>27000</v>
-      </c>
+      <c r="A6" s="3" t="inlineStr"/>
+      <c r="B6" s="46" t="inlineStr"/>
       <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="47" t="inlineStr"/>
       <c r="E6" s="48" t="inlineStr"/>
       <c r="F6" s="49" t="n"/>
     </row>
     <row r="7" ht="16.2" customHeight="1" s="40">
-      <c r="A7" s="7" t="inlineStr">
-        <is>
-          <t>伙食加給</t>
-        </is>
-      </c>
-      <c r="B7" s="50" t="n">
-        <v>2400</v>
-      </c>
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="50" t="n"/>
       <c r="C7" s="5" t="n"/>
       <c r="D7" s="50" t="n"/>
       <c r="E7" s="51" t="n"/>
@@ -1202,7 +1190,7 @@
         </is>
       </c>
       <c r="B23" s="57" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
       <c r="C23" s="20" t="inlineStr">
         <is>
@@ -1218,7 +1206,7 @@
         </is>
       </c>
       <c r="F23" s="58" t="n">
-        <v>29400</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
